--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\LRZ_Sync_Share\Joshua\Studium\TUM\Semester-3-WS2122\Micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDDE170-E298-473F-8B33-14F901F6593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{36C583CC-1248-4165-B562-A2817CB920C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11893" tabRatio="989"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Lieferant: RS</t>
   </si>
@@ -160,9 +160,6 @@
 (ohne Mwst)</t>
   </si>
   <si>
-    <t>lieferbar</t>
-  </si>
-  <si>
     <t>Digitaler Signalprozessor 16bit dsPIC33FJ64MC804-I/PT, 40MHz 16 KB 64 KB Flash, TQFP 44-Pin 9-Kanal x 10 Bit, 9-Kanal x</t>
   </si>
   <si>
@@ -186,6 +183,25 @@
   <si>
     <t>Proximity
 Sensor</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Bluetooth(?)</t>
+  </si>
+  <si>
+    <t>lieferbar, aber noch nicht klar ob wir das benutzen</t>
+  </si>
+  <si>
+    <t>Voltage
+Regulator</t>
   </si>
 </sst>
 </file>
@@ -243,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +301,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
@@ -691,7 +711,7 @@
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2</v>
@@ -717,7 +737,7 @@
     </row>
     <row r="7" spans="1:8" ht="25.35" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -742,7 +762,7 @@
     </row>
     <row r="8" spans="1:8" ht="38" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -767,7 +787,7 @@
     </row>
     <row r="9" spans="1:8" ht="38" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -794,13 +814,13 @@
     </row>
     <row r="10" spans="1:8" ht="50.7" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -816,11 +836,13 @@
         <v>30</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -828,7 +850,9 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -836,7 +860,9 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -844,7 +870,9 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -852,28 +880,28 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="E15" s="2" t="s">
+    <row r="15" spans="1:8" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <f>SUM(F7:F13)</f>
         <v>445.74</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="F16">
-        <f t="shared" ref="F16:F28" si="1">D16*E16</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F17:F29" si="1">D17*E17</f>
         <v>0</v>
       </c>
     </row>
@@ -899,6 +927,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -940,8 +969,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -962,7 +997,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
@@ -1014,28 +1049,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.35" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="38" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>20.170000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <f>D7*C7</f>
         <v>20.170000000000002</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\LRZ_Sync_Share\Joshua\Studium\TUM\Semester-3-WS2122\Micromouse\Micromouse\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibet\Documents\Uni\micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{36C583CC-1248-4165-B562-A2817CB920C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5940DE-7341-4BAA-96B5-FB2AF41B30F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11893" tabRatio="989"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS-online" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Lieferant: RS</t>
   </si>
@@ -202,13 +202,22 @@
   <si>
     <t>Voltage
 Regulator</t>
+  </si>
+  <si>
+    <t>700 Ohm</t>
+  </si>
+  <si>
+    <t>LED low current, red, surface mount</t>
+  </si>
+  <si>
+    <t>749-SM0805HCL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,6 +238,12 @@
     <font>
       <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,9 +320,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,40 +692,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.8203125" customWidth="1"/>
-    <col min="3" max="3" width="35.05859375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1171875" customWidth="1"/>
-    <col min="6" max="6" width="17.64453125" customWidth="1"/>
-    <col min="7" max="7" width="6.76171875" customWidth="1"/>
-    <col min="8" max="8" width="19.5859375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -735,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -760,7 +776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
@@ -785,7 +801,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
@@ -812,7 +828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
@@ -839,7 +855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
@@ -849,7 +865,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
@@ -859,17 +875,26 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>52</v>
       </c>
@@ -880,14 +905,14 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -898,84 +923,84 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="F17">
         <f t="shared" ref="F17:F29" si="1">D17*E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -993,40 +1018,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.8203125" customWidth="1"/>
-    <col min="2" max="2" width="35.05859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1171875" customWidth="1"/>
-    <col min="5" max="5" width="17.64453125" customWidth="1"/>
-    <col min="6" max="6" width="6.76171875" customWidth="1"/>
-    <col min="7" max="7" width="19.5859375" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -1073,49 +1098,64 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0.49</v>
+      </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" si="0">D8*C8</f>
-        <v>0</v>
+        <v>0.98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10">
-        <f t="shared" ref="E8:E14" si="1">D10*C10</f>
+        <f t="shared" ref="E10:E14" si="1">D10*C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1123,89 +1163,89 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E7:E13)</f>
-        <v>20.170000000000002</v>
+        <v>21.150000000000002</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16">
         <f t="shared" ref="E16:E28" si="2">C16*D16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1223,34 +1263,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.8203125" customWidth="1"/>
-    <col min="4" max="4" width="35.05859375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1171875" customWidth="1"/>
-    <col min="7" max="7" width="17.64453125" customWidth="1"/>
-    <col min="8" max="8" width="6.76171875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1308,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="3:8" ht="42.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1327,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="3:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1345,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:8" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1363,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="31.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1377,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="42.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1395,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="31.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1413,7 @@
         <v>6.7700000000000005</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="42.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -1391,14 +1431,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
       <c r="G14">
         <f>E14*F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1407,79 +1447,79 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" ref="G16:G28" si="0">E16*F16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibet\Documents\Uni\micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5940DE-7341-4BAA-96B5-FB2AF41B30F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F7C60-E6A7-4410-B9CD-FDD5D4D80859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS-online" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Lieferant: RS</t>
   </si>
@@ -185,39 +185,140 @@
 Sensor</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>Diode</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>Bluetooth(?)</t>
-  </si>
-  <si>
     <t>lieferbar, aber noch nicht klar ob wir das benutzen</t>
   </si>
   <si>
-    <t>Voltage
-Regulator</t>
-  </si>
-  <si>
-    <t>700 Ohm</t>
-  </si>
-  <si>
     <t>LED low current, red, surface mount</t>
   </si>
   <si>
     <t>749-SM0805HCL</t>
+  </si>
+  <si>
+    <t>700 Ohm, 0805</t>
+  </si>
+  <si>
+    <t>10 kOhm, 0805</t>
+  </si>
+  <si>
+    <t>47 kOhm, 0805</t>
+  </si>
+  <si>
+    <t>SOD123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 3MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push-Button </t>
+  </si>
+  <si>
+    <t>B3f-10XX (6mm x 6mm models)</t>
+  </si>
+  <si>
+    <t>511-L293B</t>
+  </si>
+  <si>
+    <t>L293B</t>
+  </si>
+  <si>
+    <t>804-6528</t>
+  </si>
+  <si>
+    <t>804-6587</t>
+  </si>
+  <si>
+    <t>HC49/S 16MHz Crystal</t>
+  </si>
+  <si>
+    <t>449-LFXTAL036034REEL</t>
+  </si>
+  <si>
+    <t>593-LTH3MM12VFR4500</t>
+  </si>
+  <si>
+    <t>682-1131</t>
+  </si>
+  <si>
+    <t>Male Pin Headers 1 x 6 pins</t>
+  </si>
+  <si>
+    <t>nicht lieferbar vor 17.03.22</t>
+  </si>
+  <si>
+    <t>844-3947</t>
+  </si>
+  <si>
+    <t>424-6-PIN-HEADER</t>
+  </si>
+  <si>
+    <t>100-9508</t>
+  </si>
+  <si>
+    <t>keine gefunden</t>
+  </si>
+  <si>
+    <t>Voltage Regulator TO-220 5V</t>
+  </si>
+  <si>
+    <t>579-MCP1825-5002E/ET</t>
+  </si>
+  <si>
+    <t>579-MCP1825-3302E/ET</t>
+  </si>
+  <si>
+    <t>Voltage Regulator TO-220 3.3 V</t>
+  </si>
+  <si>
+    <t>capacitor ceramic, 100nF, 0805</t>
+  </si>
+  <si>
+    <t>80-C0805X104K3RAUTO</t>
+  </si>
+  <si>
+    <t>capacitor ceramic, 15pF, 0805</t>
+  </si>
+  <si>
+    <t>80-C0805C150G8HACTU</t>
+  </si>
+  <si>
+    <t>capacitor ceramic, 0.33uF, 0805</t>
+  </si>
+  <si>
+    <t>80-C0805C334J3REAULR</t>
+  </si>
+  <si>
+    <t>capacitor tantalum, 4.7uF, 0805</t>
+  </si>
+  <si>
+    <t>581-F381A475MSA</t>
+  </si>
+  <si>
+    <t>1 x 3 Pins, Male Headers</t>
+  </si>
+  <si>
+    <t>2 x 3 Pins, Male Headers</t>
+  </si>
+  <si>
+    <t>1 x 4 Pins, Female Headers</t>
+  </si>
+  <si>
+    <t>keine gefunden, möglich 1 x4:  437-811S100410016101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nur 1x6 gefunden(437-8018300710001101) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -243,6 +344,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -274,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,6 +428,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -693,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -793,7 +904,7 @@
         <v>4.32</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F14" si="0">E8*D8</f>
+        <f>E8*D8</f>
         <v>4.32</v>
       </c>
       <c r="G8" t="s">
@@ -818,7 +929,7 @@
         <v>203.47</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>E9*D9</f>
         <v>406.94</v>
       </c>
       <c r="G9" t="s">
@@ -845,7 +956,7 @@
         <v>5.32</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>E10*D10</f>
         <v>5.32</v>
       </c>
       <c r="G10" t="s">
@@ -859,9 +970,21 @@
       <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="B11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E11*D11</f>
+        <v>0.45899999999999996</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -869,140 +992,178 @@
       <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2E-3</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14">
+        <v>1.44</v>
+      </c>
+      <c r="F14">
+        <f>E14*D14</f>
+        <v>2.88</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F15">
+        <f>E15*D15</f>
+        <v>1.1919999999999999</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="E16" s="2" t="s">
+    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2">
-        <f>SUM(F7:F13)</f>
-        <v>445.74</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="F17">
-        <f t="shared" ref="F17:F29" si="1">D17*E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f>SUM(F7:F14)</f>
+        <v>449.07900000000001</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D20*E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D22*E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D23*E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D24*E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D25*E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D26*E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D27*E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f>D28*E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f>D29*E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>D30*E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>D31*E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>D32*E32</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1095,15 +1256,15 @@
         <v>30</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1121,132 +1282,303 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.96299999999999997</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4.7699999999999996</v>
+      </c>
       <c r="E10">
-        <f t="shared" ref="E10:E14" si="1">D10*C10</f>
-        <v>0</v>
+        <f t="shared" ref="E10:E18" si="1">D10*C10</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.53400000000000003</v>
+      </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1.3</v>
+      </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.89300000000000002</v>
+      </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="A14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.89300000000000002</v>
+      </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.376</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="2">
         <f>SUM(E7:E13)</f>
-        <v>21.150000000000002</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" ref="E16:E28" si="2">C16*D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32.21</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E20:E32" si="2">C20*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1266,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibet\Documents\Uni\micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F7C60-E6A7-4410-B9CD-FDD5D4D80859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C8C75-62D3-4002-A6C8-A80C67BF0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Lieferant: RS</t>
   </si>
@@ -200,9 +200,6 @@
     <t>749-SM0805HCL</t>
   </si>
   <si>
-    <t>700 Ohm, 0805</t>
-  </si>
-  <si>
     <t>10 kOhm, 0805</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t>Male Pin Headers 1 x 6 pins</t>
   </si>
   <si>
-    <t>nicht lieferbar vor 17.03.22</t>
-  </si>
-  <si>
-    <t>844-3947</t>
-  </si>
-  <si>
     <t>424-6-PIN-HEADER</t>
   </si>
   <si>
@@ -312,6 +303,12 @@
   </si>
   <si>
     <t xml:space="preserve">nur 1x6 gefunden(437-8018300710001101) </t>
+  </si>
+  <si>
+    <t>804-6449</t>
+  </si>
+  <si>
+    <t>1 kOhm, 0805</t>
   </si>
 </sst>
 </file>
@@ -806,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -971,10 +968,10 @@
         <v>49</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -993,15 +990,19 @@
         <v>50</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="0">E12*D12</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H12" s="6"/>
@@ -1011,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1022,44 +1023,46 @@
       <c r="E13">
         <v>2E-3</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1.44</v>
+        <v>2E-3</v>
       </c>
       <c r="F14">
         <f>E14*D14</f>
-        <v>2.88</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1080,90 +1083,90 @@
       </c>
       <c r="F19" s="2">
         <f>SUM(F7:F14)</f>
-        <v>449.07900000000001</v>
+        <v>446.20800000000003</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" ref="F20:F32" si="1">D20*E20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="F24">
-        <f>D24*E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f>D25*E25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26">
-        <f>D26*E26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f>D27*E27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28">
-        <f>D28*E28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29">
-        <f>D29*E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30">
-        <f>D30*E30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31">
-        <f>D31*E31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32">
-        <f>D32*E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1182,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1283,10 +1286,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1305,10 +1308,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1327,10 +1330,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1346,10 +1349,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1365,10 +1368,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1384,10 +1387,10 @@
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1422,10 +1425,10 @@
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1441,10 +1444,10 @@
     </row>
     <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1460,10 +1463,10 @@
     </row>
     <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1495,10 +1498,10 @@
     </row>
     <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1507,10 +1510,10 @@
     </row>
     <row r="22" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="23" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>1</v>

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibet\Documents\Uni\micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C8C75-62D3-4002-A6C8-A80C67BF0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98EC2-660E-4283-8723-B4149A1A4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12132" yWindow="1644" windowWidth="12960" windowHeight="8964" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS-online" sheetId="2" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>SOD123</t>
   </si>
   <si>
-    <t xml:space="preserve">LED 3MM </t>
-  </si>
-  <si>
     <t xml:space="preserve">Push-Button </t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>449-LFXTAL036034REEL</t>
   </si>
   <si>
-    <t>593-LTH3MM12VFR4500</t>
-  </si>
-  <si>
     <t>682-1131</t>
   </si>
   <si>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>1 kOhm, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 5MM </t>
+  </si>
+  <si>
+    <t>593-LTH5MM12VFR4400</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +968,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>56</v>
@@ -990,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>55</v>
@@ -1012,7 +1012,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>54</v>
@@ -1034,10 +1034,10 @@
         <v>50</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1286,20 +1286,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.96299999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.96299999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E19" s="2">
         <f>SUM(E7:E13)</f>
-        <v>32.21</v>
+        <v>32.218000000000004</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="22" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="23" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>1</v>

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibet\Documents\Uni\micromouse\Micromouse\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Welser\Documents\GitHub\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98EC2-660E-4283-8723-B4149A1A4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD8B68-2D83-4638-AA1D-C549F53D8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12132" yWindow="1644" windowWidth="12960" windowHeight="8964" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="989" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS-online" sheetId="2" r:id="rId1"/>
     <sheet name="Mouser" sheetId="3" r:id="rId2"/>
-    <sheet name="Original (2018)" sheetId="1" r:id="rId3"/>
+    <sheet name="Pololu" sheetId="4" r:id="rId3"/>
+    <sheet name="nicht relevant" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Lieferant: RS</t>
   </si>
@@ -114,18 +115,6 @@
     <t>Sharp Reflektierender Sensor, 300mm, Herst. Teile-Nr.: GP2Y0A41SK0F</t>
   </si>
   <si>
-    <t>Brauchen wir Teile für ein oder zwei Boards?</t>
-  </si>
-  <si>
-    <t>714-0613</t>
-  </si>
-  <si>
-    <t>STMicroelectronics Motor Driver IC L293B, 1A, PDIP, 16-Pin, DC Bürstenmotor, Zweifach-Vollbrücke</t>
-  </si>
-  <si>
-    <t>Einzelpreis (ohne Mwst)</t>
-  </si>
-  <si>
     <t>nein</t>
   </si>
   <si>
@@ -136,9 +125,6 @@
   </si>
   <si>
     <t>ja</t>
-  </si>
-  <si>
-    <t>nicht lieferbar vor 11.03.22</t>
   </si>
   <si>
     <t>Lieferant: Mouser</t>
@@ -163,9 +149,6 @@
     <t>Digitaler Signalprozessor 16bit dsPIC33FJ64MC804-I/PT, 40MHz 16 KB 64 KB Flash, TQFP 44-Pin 9-Kanal x 10 Bit, 9-Kanal x</t>
   </si>
   <si>
-    <t>nur einer Lieferbar! Danach ab 25.04.22</t>
-  </si>
-  <si>
     <t>666-8491</t>
   </si>
   <si>
@@ -173,9 +156,6 @@
   </si>
   <si>
     <t>Motor</t>
-  </si>
-  <si>
-    <t>H-Bridge</t>
   </si>
   <si>
     <t>Chip</t>
@@ -185,48 +165,18 @@
 Sensor</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>lieferbar, aber noch nicht klar ob wir das benutzen</t>
-  </si>
-  <si>
     <t>LED low current, red, surface mount</t>
   </si>
   <si>
     <t>749-SM0805HCL</t>
   </si>
   <si>
-    <t>10 kOhm, 0805</t>
-  </si>
-  <si>
-    <t>47 kOhm, 0805</t>
-  </si>
-  <si>
-    <t>SOD123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Push-Button </t>
   </si>
   <si>
-    <t>B3f-10XX (6mm x 6mm models)</t>
-  </si>
-  <si>
     <t>511-L293B</t>
   </si>
   <si>
-    <t>L293B</t>
-  </si>
-  <si>
-    <t>804-6528</t>
-  </si>
-  <si>
-    <t>804-6587</t>
-  </si>
-  <si>
     <t>HC49/S 16MHz Crystal</t>
   </si>
   <si>
@@ -242,24 +192,12 @@
     <t>424-6-PIN-HEADER</t>
   </si>
   <si>
-    <t>100-9508</t>
-  </si>
-  <si>
     <t>keine gefunden</t>
   </si>
   <si>
     <t>Voltage Regulator TO-220 5V</t>
   </si>
   <si>
-    <t>579-MCP1825-5002E/ET</t>
-  </si>
-  <si>
-    <t>579-MCP1825-3302E/ET</t>
-  </si>
-  <si>
-    <t>Voltage Regulator TO-220 3.3 V</t>
-  </si>
-  <si>
     <t>capacitor ceramic, 100nF, 0805</t>
   </si>
   <si>
@@ -299,23 +237,131 @@
     <t xml:space="preserve">nur 1x6 gefunden(437-8018300710001101) </t>
   </si>
   <si>
-    <t>804-6449</t>
-  </si>
-  <si>
-    <t>1 kOhm, 0805</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED 5MM </t>
   </si>
   <si>
     <t>593-LTH5MM12VFR4400</t>
+  </si>
+  <si>
+    <t>H-Brücke L293B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-L7805CV </t>
+  </si>
+  <si>
+    <t>nicht lieferbar</t>
+  </si>
+  <si>
+    <t>926-LM1085IT33NOPB</t>
+  </si>
+  <si>
+    <t>Voltage Regulator TO-220 3.3 V (LDO)</t>
+  </si>
+  <si>
+    <t>71-RCG080547K0JNEA</t>
+  </si>
+  <si>
+    <t>47 kOhm, 0805, E24 +/-5%</t>
+  </si>
+  <si>
+    <t>E12 nicht lieferbar</t>
+  </si>
+  <si>
+    <t>71-RCG080510K0JNEA</t>
+  </si>
+  <si>
+    <t>10 kOhm, 0805, E24 +/-5%</t>
+  </si>
+  <si>
+    <t>E12 3x so teuer</t>
+  </si>
+  <si>
+    <t>71-RCG08051K00JNEA</t>
+  </si>
+  <si>
+    <t>1 kOhm, 0805, E24 +/-5%</t>
+  </si>
+  <si>
+    <t>852-GP2Y0A51SK0F</t>
+  </si>
+  <si>
+    <t>Sharp distance sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241-SS0520_R1_00001 </t>
+  </si>
+  <si>
+    <t>diode, surface mount, 20V, 0.5A, SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963-LMR212BD7106KG-T </t>
+  </si>
+  <si>
+    <t>capacitor ceramic, 10uF, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-T529P106M06AAE200 </t>
+  </si>
+  <si>
+    <t>capacitor tantalum, 10uF, 0805</t>
+  </si>
+  <si>
+    <t>Summe Bestellung:</t>
+  </si>
+  <si>
+    <t>brauchen wir nicht, wenn wir die ...51... nehmen!!</t>
+  </si>
+  <si>
+    <t>nicht lieferbar, aber Alex hat wohl noch einige</t>
+  </si>
+  <si>
+    <t>nur einer lieferbar! Danach ab 25.04.22
+Alex hat evtl. noch welche</t>
+  </si>
+  <si>
+    <t>button B3f-10XX (6mm x 6mm models)</t>
+  </si>
+  <si>
+    <t>Menge mit
+ Ersatz</t>
+  </si>
+  <si>
+    <t>Einzelpreis
+ (ohne Mwst)</t>
+  </si>
+  <si>
+    <t>Gesamtpreis mit 
+Ersatz</t>
+  </si>
+  <si>
+    <t>Menge mit
+Ersatz</t>
+  </si>
+  <si>
+    <t>Gesamtpreis mit
+Ersatz</t>
+  </si>
+  <si>
+    <t>Pololu Wheel 60×8mm Pair - Black</t>
+  </si>
+  <si>
+    <t>Preis in USD</t>
+  </si>
+  <si>
+    <t>Pololu-Nr</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/</t>
+  </si>
+  <si>
+    <t>Lieferant: Pololu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -351,19 +397,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -375,10 +427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -413,24 +466,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -801,41 +854,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2</v>
@@ -846,22 +899,28 @@
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>48</v>
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -873,20 +932,29 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>9.7200000000000006</v>
       </c>
-      <c r="F7">
-        <f>E7*D7</f>
+      <c r="G7">
+        <f>F7*D7</f>
         <v>29.160000000000004</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7">
+        <f>F7*E7</f>
+        <v>38.880000000000003</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>46</v>
+      <c r="J7" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -895,281 +963,148 @@
         <v>28</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>203.47</v>
+      </c>
+      <c r="G8">
+        <f>F8*D8</f>
+        <v>406.94</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H10" si="0">F8*E8</f>
+        <v>406.94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>4.32</v>
-      </c>
-      <c r="F8">
-        <f>E8*D8</f>
-        <v>4.32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
       <c r="E9">
-        <v>203.47</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <f>E9*D9</f>
-        <v>406.94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+        <v>5.62</v>
+      </c>
+      <c r="G9">
+        <f>F9*D9</f>
+        <v>5.62</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>5.32</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <f>E10*D10</f>
-        <v>5.32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F11">
-        <f>E11*D11</f>
-        <v>0.45899999999999996</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F13" si="0">E12*D12</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2E-3</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2E-3</v>
-      </c>
-      <c r="F14">
-        <f>E14*D14</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
         <v>0.59599999999999997</v>
       </c>
-      <c r="F15">
-        <f>E15*D15</f>
+      <c r="G10">
+        <f>F10*D10</f>
         <v>1.1919999999999999</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM(G7:G9)</f>
+        <v>441.72</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(H7:H9)</f>
+        <v>457.06</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM(G10,G9,G7)</f>
+        <v>35.972000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <f>SUM(H10,H9,H7)</f>
+        <v>52.504000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2">
-        <f>SUM(F7:F14)</f>
-        <v>446.20800000000003</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="F20">
-        <f t="shared" ref="F20:F32" si="1">D20*E20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1183,41 +1118,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -1226,366 +1161,646 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="17">
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
         <v>20.170000000000002</v>
       </c>
-      <c r="E7" s="17">
-        <f>D7*C7</f>
+      <c r="F7" s="19">
+        <f>E7*C7</f>
         <v>20.170000000000002</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>53</v>
+      <c r="G7" s="19">
+        <f>E7*D7</f>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>0.49</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E9" si="0">D8*C8</f>
+      <c r="F8">
+        <f t="shared" ref="F8:G25" si="0">E8*C8</f>
         <v>0.98</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>90</v>
+      <c r="G8" s="19">
+        <f t="shared" ref="G8:G25" si="1">E8*D8</f>
+        <v>1.96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>0.97099999999999997</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0.97099999999999997</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>59</v>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>4.7699999999999996</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E18" si="1">D10*C10</f>
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>64</v>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>67</v>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>1.3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>71</v>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.89300000000000002</v>
+        <v>2</v>
       </c>
       <c r="E13">
+        <v>2.15</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>75</v>
+        <v>1.786</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F17">
+        <f>E17*C17</f>
+        <v>0.192</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>8.35</v>
+      </c>
+      <c r="F18">
+        <f>E18*C18</f>
+        <v>25.049999999999997</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0.245</v>
+      </c>
+      <c r="F19">
+        <f>E19*C19</f>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>0.376</v>
       </c>
-      <c r="E15">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3.76</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="1"/>
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
+        <v>5.64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E16">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E17">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="1"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2">
-        <f>SUM(E7:E13)</f>
-        <v>32.218000000000004</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f t="shared" ref="E20:E32" si="2">C20*D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="1"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="1"/>
+        <v>1.802</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2">
+        <f>SUM(F7:F25)</f>
+        <v>68.97399999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SUM(G7:G25)</f>
+        <v>98.463000000000022</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="2">
+        <f>SUM(F7:F12,F15:F17,F19:F25)</f>
+        <v>40.881000000000007</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM(G7:G12,G15:G17,G19:G25)</f>
+        <v>58.976999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1598,6 +1813,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3E790E-A96C-4AE9-9D24-2188B97A15F3}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4.25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="0">E7*D7</f>
+        <v>8.5</v>
+      </c>
+      <c r="G7">
+        <f>D7*E7</f>
+        <v>8.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SUM(F7:F7)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G7:G7)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{B3AF0D36-08F6-47E8-9923-E3F75914BF4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:H28"/>
   <sheetViews>
@@ -1605,27 +1961,27 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1643,7 +1999,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +2018,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +2036,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +2054,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -1712,7 +2068,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +2086,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +2104,7 @@
         <v>6.7700000000000005</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -1766,14 +2122,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="5"/>
       <c r="G14">
         <f>E14*F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1782,79 +2138,79 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16">
         <f t="shared" ref="G16:G28" si="0">E16*F16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/documents/Bestellung_Micromouse_2022_01.xlsx
+++ b/documents/Bestellung_Micromouse_2022_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\LRZ_Sync_Share\Joshua\Studium\TUM\Semester-3-WS2122\Micromouse\Micromouse\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ABAB2A-C071-482B-8727-E07D6FBF2455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A15C4A-4658-4E57-B176-60D11981BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS-online" sheetId="1" r:id="rId1"/>
